--- a/_WIP/Tobias/Voodoo_AssetList.xlsx
+++ b/_WIP/Tobias/Voodoo_AssetList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2D" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>UI</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Character</t>
   </si>
   <si>
-    <t>Props</t>
-  </si>
-  <si>
     <t>Sound</t>
   </si>
   <si>
@@ -45,6 +42,82 @@
   </si>
   <si>
     <t>Menus</t>
+  </si>
+  <si>
+    <t>Bürostuhl</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Höhe</t>
+  </si>
+  <si>
+    <t>Breite</t>
+  </si>
+  <si>
+    <t>Tiefe</t>
+  </si>
+  <si>
+    <t>Voodoopuppe</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Regal 1</t>
+  </si>
+  <si>
+    <t>Regal 2</t>
+  </si>
+  <si>
+    <t>Regal 3</t>
+  </si>
+  <si>
+    <t>Regal 4</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Schreibtisch 1</t>
+  </si>
+  <si>
+    <t>Schreibtisch 2</t>
+  </si>
+  <si>
+    <t>3 Schubladen pro Seite (Höhe 12,5 cm)
+In Höhe (Oberseite der Schublade):
+- 25 cm
+- 40 cm (ausziehbar)
+- 65 cm</t>
+  </si>
+  <si>
+    <t>1 Tür pro Seite</t>
+  </si>
+  <si>
+    <t>60 cm Sitzhöhe (Rückenlehne undefiniert)</t>
+  </si>
+  <si>
+    <t>Regalfächer min 40 cm hoch</t>
+  </si>
+  <si>
+    <t>Aktenschrank</t>
+  </si>
+  <si>
+    <t>2 Schubladen (Höhe 35 cm)
+In Höhe (Oberseite der Schublade):
+- 40 cm
+- 75 cm</t>
+  </si>
+  <si>
+    <t>Sprunghöhe 20 cm</t>
   </si>
 </sst>
 </file>
@@ -80,13 +153,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -94,6 +174,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:G12" totalsRowShown="0">
+  <autoFilter ref="B2:G12"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Asset"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Höhe"/>
+    <tableColumn id="4" name="Breite"/>
+    <tableColumn id="5" name="Tiefe"/>
+    <tableColumn id="6" name="Sonstiges" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,7 +498,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -413,26 +508,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>160</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -448,17 +761,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +796,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
